--- a/results/tables/table_S1.xlsx
+++ b/results/tables/table_S1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="GENRE Topology Breakdown" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,393 +21,162 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t xml:space="preserve">GENRE name:</t>
   </si>
   <si>
+    <t xml:space="preserve">iCdG698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iCdR700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd630 draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cdR20291 draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iMLTC806cdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">icdf834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iCN900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iHD992</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGORA NAP07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGORA NAP08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGORA CD196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGORA R20291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strain:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630 delta erm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAP07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAP08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartments:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reactions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exchange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolites:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periplasmic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytosolic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boundary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitochondrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">free(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noGPR(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noGPR_active(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unconnected(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imbalance(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blocked(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">growth(min)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stoichiometric_inconsistency(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">memote_score(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annotation_genes(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annotation_reactions(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annotation_metabolites(%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">namespace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd630_draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20291_draft</t>
+  </si>
+  <si>
     <t xml:space="preserve">iCdG693</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iCdR700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cd630 draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cdR20291 draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iMLTC806cdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">icdf834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iCN900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iHD992</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AGORA NAP07</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AGORA </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">NAP08</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AGORA </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">CD196</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">AGORA </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">R20291</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Strain:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20291</t>
-  </si>
-  <si>
-    <t xml:space="preserve">630 delta erm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAP07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAP08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartments:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Genes:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reactions:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exchange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolites:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periplasmic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytosolic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boundary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitochondrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genre</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">free</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">noGPR</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">noGPR_active</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">unconnected</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">imbalance</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">blocked</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">growth(min)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reactions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stoichiometric_inconsistency(%)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">memote_score</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">annotation_genes</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">annotation_reactions</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">annotation_metabolites</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(%)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">namespace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cd630_draft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20291_draft</t>
   </si>
   <si>
     <t xml:space="preserve">agora_NAP07</t>
@@ -429,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -459,20 +228,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -517,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -539,10 +304,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,11 +339,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,8 +366,8 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,13 +414,13 @@
       <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -667,28 +428,28 @@
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>630</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="6" t="n">
         <v>630</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="n">
+      <c r="F2" s="6" t="n">
         <v>630</v>
       </c>
-      <c r="G2" s="7" t="n">
+      <c r="G2" s="6" t="n">
         <v>630</v>
       </c>
-      <c r="H2" s="7" t="n">
+      <c r="H2" s="6" t="n">
         <v>630</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -708,81 +469,81 @@
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="8" t="n">
+      <c r="J3" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="K3" s="8" t="n">
+      <c r="K3" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="L3" s="8" t="n">
+      <c r="L3" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="M3" s="8" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>693</v>
-      </c>
-      <c r="C4" s="7" t="n">
+      <c r="B4" s="6" t="n">
+        <v>698</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>700</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="6" t="n">
         <v>598</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="6" t="n">
         <v>715</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="7" t="n">
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="n">
         <v>832</v>
       </c>
-      <c r="H4" s="7" t="n">
+      <c r="H4" s="6" t="n">
         <v>900</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="7" t="n">
+      <c r="I4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="n">
         <v>865</v>
       </c>
-      <c r="K4" s="7" t="n">
+      <c r="K4" s="6" t="n">
         <v>865</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="6" t="n">
         <v>905</v>
       </c>
-      <c r="M4" s="7" t="n">
+      <c r="M4" s="6" t="n">
         <v>893</v>
       </c>
     </row>
@@ -790,397 +551,397 @@
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="6" t="n">
         <v>1308</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="6" t="n">
         <v>1312</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="6" t="n">
         <v>460</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="6" t="n">
         <v>1143</v>
       </c>
-      <c r="F5" s="7" t="n">
+      <c r="F5" s="6" t="n">
         <v>1337</v>
       </c>
-      <c r="G5" s="7" t="n">
+      <c r="G5" s="6" t="n">
         <v>1168</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="6" t="n">
         <v>1229</v>
       </c>
-      <c r="I5" s="7" t="n">
+      <c r="I5" s="6" t="n">
         <v>1125</v>
       </c>
-      <c r="J5" s="7" t="n">
+      <c r="J5" s="6" t="n">
         <v>1689</v>
       </c>
-      <c r="K5" s="7" t="n">
+      <c r="K5" s="6" t="n">
         <v>1693</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="6" t="n">
         <v>1809</v>
       </c>
-      <c r="M5" s="7" t="n">
+      <c r="M5" s="6" t="n">
         <v>1402</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="10" t="n">
         <v>973</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>972</v>
       </c>
-      <c r="D6" s="11" t="n">
+      <c r="D6" s="10" t="n">
         <v>317</v>
       </c>
-      <c r="E6" s="11" t="n">
+      <c r="E6" s="10" t="n">
         <v>975</v>
       </c>
-      <c r="F6" s="11" t="n">
+      <c r="F6" s="10" t="n">
         <v>901</v>
       </c>
-      <c r="G6" s="11" t="n">
+      <c r="G6" s="10" t="n">
         <v>896</v>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="H6" s="10" t="n">
         <v>935</v>
       </c>
-      <c r="I6" s="11" t="n">
+      <c r="I6" s="10" t="n">
         <v>964</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="10" t="n">
         <v>1142</v>
       </c>
-      <c r="K6" s="11" t="n">
+      <c r="K6" s="10" t="n">
         <v>1146</v>
       </c>
-      <c r="L6" s="11" t="n">
+      <c r="L6" s="10" t="n">
         <v>1240</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="M6" s="10" t="n">
         <v>1044</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <v>174</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="10" t="n">
         <v>177</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="E7" s="11" t="n">
+      <c r="E7" s="10" t="n">
         <v>82</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="10" t="n">
         <v>318</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="10" t="n">
         <v>149</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="10" t="n">
         <v>162</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="11" t="n">
+      <c r="I7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="10" t="n">
         <v>169</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="10" t="n">
         <v>169</v>
       </c>
-      <c r="L7" s="11" t="n">
+      <c r="L7" s="10" t="n">
         <v>175</v>
       </c>
-      <c r="M7" s="11" t="n">
+      <c r="M7" s="10" t="n">
         <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="11" t="n">
         <v>161</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="11" t="n">
         <v>163</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="11" t="n">
         <v>73</v>
       </c>
-      <c r="E8" s="11" t="n">
+      <c r="E8" s="10" t="n">
         <v>86</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="11" t="n">
         <v>118</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="11" t="n">
         <v>123</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="11" t="n">
         <v>132</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="11" t="n">
         <v>161</v>
       </c>
-      <c r="J8" s="11" t="n">
+      <c r="J8" s="10" t="n">
         <v>378</v>
       </c>
-      <c r="K8" s="11" t="n">
+      <c r="K8" s="10" t="n">
         <v>378</v>
       </c>
-      <c r="L8" s="11" t="n">
+      <c r="L8" s="10" t="n">
         <v>394</v>
       </c>
-      <c r="M8" s="11" t="n">
+      <c r="M8" s="10" t="n">
         <v>186</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="n">
-        <v>1235</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>1245</v>
-      </c>
-      <c r="D9" s="7" t="n">
+      <c r="B9" s="6" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>1243</v>
+      </c>
+      <c r="D9" s="6" t="n">
         <v>472</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="6" t="n">
         <v>1243</v>
       </c>
-      <c r="F9" s="7" t="n">
+      <c r="F9" s="6" t="n">
         <v>1756</v>
       </c>
-      <c r="G9" s="7" t="n">
+      <c r="G9" s="6" t="n">
         <v>807</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H9" s="6" t="n">
         <v>885</v>
       </c>
-      <c r="I9" s="7" t="n">
+      <c r="I9" s="6" t="n">
         <v>935</v>
       </c>
-      <c r="J9" s="7" t="n">
+      <c r="J9" s="6" t="n">
         <v>1332</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K9" s="6" t="n">
         <v>1336</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="6" t="n">
         <v>1379</v>
       </c>
-      <c r="M9" s="7" t="n">
+      <c r="M9" s="6" t="n">
         <v>1164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="12" t="n">
+      <c r="B10" s="11" t="n">
         <v>161</v>
       </c>
-      <c r="C10" s="12" t="n">
+      <c r="C10" s="11" t="n">
         <v>163</v>
       </c>
-      <c r="D10" s="12" t="n">
+      <c r="D10" s="11" t="n">
         <v>138</v>
       </c>
-      <c r="E10" s="11" t="n">
+      <c r="E10" s="10" t="n">
         <v>82</v>
       </c>
-      <c r="F10" s="12" t="n">
+      <c r="F10" s="11" t="n">
         <v>117</v>
       </c>
-      <c r="G10" s="12" t="n">
+      <c r="G10" s="11" t="n">
         <v>125</v>
       </c>
-      <c r="H10" s="12" t="n">
+      <c r="H10" s="11" t="n">
         <v>136</v>
       </c>
-      <c r="I10" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="11" t="n">
+      <c r="I10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="10" t="n">
         <v>366</v>
       </c>
-      <c r="K10" s="11" t="n">
+      <c r="K10" s="10" t="n">
         <v>366</v>
       </c>
-      <c r="L10" s="11" t="n">
+      <c r="L10" s="10" t="n">
         <v>371</v>
       </c>
-      <c r="M10" s="11" t="n">
+      <c r="M10" s="10" t="n">
         <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="12" t="n">
+      <c r="B11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="n">
+      <c r="C11" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="12" t="s">
+      <c r="D11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="12" t="n">
+      <c r="B12" s="11" t="n">
         <v>1071</v>
       </c>
-      <c r="C12" s="12" t="n">
+      <c r="C12" s="11" t="n">
         <v>1079</v>
       </c>
-      <c r="D12" s="12" t="n">
+      <c r="D12" s="11" t="n">
         <v>334</v>
       </c>
-      <c r="E12" s="12" t="n">
+      <c r="E12" s="11" t="n">
         <v>1161</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="11" t="n">
         <v>1521</v>
       </c>
-      <c r="G12" s="12" t="n">
+      <c r="G12" s="11" t="n">
         <v>682</v>
       </c>
-      <c r="H12" s="12" t="n">
+      <c r="H12" s="11" t="n">
         <v>749</v>
       </c>
-      <c r="I12" s="12" t="n">
+      <c r="I12" s="11" t="n">
         <v>935</v>
       </c>
-      <c r="J12" s="11" t="n">
+      <c r="J12" s="10" t="n">
         <v>965</v>
       </c>
-      <c r="K12" s="11" t="n">
+      <c r="K12" s="10" t="n">
         <v>969</v>
       </c>
-      <c r="L12" s="11" t="n">
+      <c r="L12" s="10" t="n">
         <v>1007</v>
       </c>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="10" t="n">
         <v>999</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="12" t="n">
+      <c r="B13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="11" t="n">
         <v>118</v>
       </c>
-      <c r="G13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M13" s="12" t="s">
+      <c r="G13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="B14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="2" t="n">
@@ -1214,11 +975,11 @@
   </sheetPr>
   <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.54"/>
@@ -1228,7 +989,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="29.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="16.99"/>
@@ -1545,34 +1306,34 @@
       <c r="A7" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <v>0.24</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="10" t="n">
         <v>13.21</v>
       </c>
-      <c r="D7" s="11" t="n">
+      <c r="D7" s="10" t="n">
         <v>35.09</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="11" t="n">
+      <c r="F7" s="10" t="n">
         <v>0.09</v>
       </c>
-      <c r="G7" s="11" t="n">
+      <c r="G7" s="10" t="n">
         <v>49.43</v>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="H7" s="10" t="n">
         <v>137.07</v>
       </c>
-      <c r="I7" s="11" t="n">
+      <c r="I7" s="10" t="n">
         <v>1143</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="10" t="n">
         <v>1243</v>
       </c>
-      <c r="K7" s="11" t="n">
+      <c r="K7" s="10" t="n">
         <v>715</v>
       </c>
       <c r="L7" s="0" t="n">
@@ -1593,7 +1354,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1693,36 +1454,36 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="15" t="n">
+        <v>52</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14" t="n">
         <v>11.22</v>
       </c>
-      <c r="D10" s="15" t="n">
+      <c r="D10" s="14" t="n">
         <v>27.57</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="14" t="n">
         <v>0.24</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="14" t="n">
         <v>30.25</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="14" t="n">
         <v>28.12</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="I10" s="15" t="n">
         <v>1689</v>
       </c>
-      <c r="J10" s="16" t="n">
+      <c r="J10" s="15" t="n">
         <v>1332</v>
       </c>
-      <c r="K10" s="15" t="n">
+      <c r="K10" s="14" t="n">
         <v>865</v>
       </c>
       <c r="L10" s="0" t="n">
@@ -1743,36 +1504,36 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="14" t="n">
         <v>11.19</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="14" t="n">
         <v>27.67</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="14" t="n">
         <v>0.24</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="14" t="n">
         <v>30.3</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="14" t="n">
         <v>28.13</v>
       </c>
-      <c r="I11" s="16" t="n">
+      <c r="I11" s="15" t="n">
         <v>1693</v>
       </c>
-      <c r="J11" s="16" t="n">
+      <c r="J11" s="15" t="n">
         <v>1336</v>
       </c>
-      <c r="K11" s="15" t="n">
+      <c r="K11" s="14" t="n">
         <v>865</v>
       </c>
       <c r="L11" s="0" t="n">
@@ -1793,36 +1554,36 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="14" t="n">
         <v>16.58</v>
       </c>
-      <c r="D12" s="15" t="n">
+      <c r="D12" s="14" t="n">
         <v>34.09</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="14" t="n">
         <v>0.44</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="14" t="n">
         <v>18.19</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="14" t="n">
         <v>23.28</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="15" t="n">
         <v>1809</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="15" t="n">
         <v>1379</v>
       </c>
-      <c r="K12" s="15" t="n">
+      <c r="K12" s="14" t="n">
         <v>905</v>
       </c>
       <c r="L12" s="0" t="n">
@@ -1843,36 +1604,36 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C13" s="15" t="n">
+      <c r="C13" s="14" t="n">
         <v>21.74</v>
       </c>
-      <c r="D13" s="15" t="n">
+      <c r="D13" s="14" t="n">
         <v>34.25</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="14" t="n">
         <v>0.57</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="14" t="n">
         <v>23.54</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="14" t="n">
         <v>23.35</v>
       </c>
-      <c r="I13" s="16" t="n">
+      <c r="I13" s="15" t="n">
         <v>1402</v>
       </c>
-      <c r="J13" s="16" t="n">
+      <c r="J13" s="15" t="n">
         <v>1164</v>
       </c>
-      <c r="K13" s="15" t="n">
+      <c r="K13" s="14" t="n">
         <v>893</v>
       </c>
       <c r="L13" s="0" t="n">

--- a/results/tables/table_S1.xlsx
+++ b/results/tables/table_S1.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GENRE Topology Breakdown" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Additional Comparison Metrics" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="AGORA model demand reactions" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="100">
   <si>
     <t xml:space="preserve">GENRE name:</t>
   </si>
@@ -189,6 +190,138 @@
   </si>
   <si>
     <t xml:space="preserve">agora_R20291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGORA str. NAP07 GENRE demand reactions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_4HBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sink needed to allow 4-hydroxy-benzoate to leave system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_HQN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sink needed to allow Hydroquinone to leave system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_btn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand for biotin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_clpn140(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for cardiolipin (tetratetradecanoyl, n-C14:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_clpn160(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for cardiolipin (tetrahexadecanoyl, n-C16:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_clpn180(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for cardiolipin (tetraoctadecanoyl, n-C18:0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_clpni16(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for cardiolipin (14-methyl-pentadecanoyl, iso-C16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_dhptd(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand reaction for 4,5-dihydroxy-2,3-pentanedione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sink_dmbzid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sink for 5,6-Dimenthylbenzimidazole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGORA str. NAP08 demand reactions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGORA str. CD196 GENRE demand reactions:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_5DRIB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sink needed to allow 5-deoxyribose to leave system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_5MTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sink needed to allow 5-Methylthio-D-ribose to leave system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_GCALD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sink needed to allow glycol aldehyde to leave system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_clpnai15(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for cardiolipin (12-methyl-tetradecanoyl, anteiso-C15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_clpnai17(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for cardiolipin (14-methyl-hexadecanoyl, anteiso-C17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_clpni15(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for cardiolipin (13-methyl-tetradecanoyl, iso-C15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_clpni17(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for cardiolipin (15-methyl-hexadecanoyl, iso-C17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_dad_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand for 5-deoxyadenosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DM_teich_45_BS(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demand reaction for teichuronic acid (GlcA + GalNac, 45 repeating unit)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sink_PGPm1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sink reaction for peptidoglycan polymer (n-1) subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sink_gthrd(c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sink reaction for reduced glutathione</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGORA str. R20291 GENRE demand reactions:</t>
   </si>
 </sst>
 </file>
@@ -282,7 +415,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -347,6 +480,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,7 +503,7 @@
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -979,7 +1116,7 @@
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.54"/>
@@ -1661,4 +1798,526 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="59.88"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A45:D45"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>